--- a/plan/2024-甘特图.xlsx
+++ b/plan/2024-甘特图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myCode\otherShore\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246B7D8F-63D8-4C1E-8992-B9B174C5E43E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC897549-9655-41A2-9ED3-EC9657718A95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>1月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,10 @@
   </si>
   <si>
     <t>看一场演唱会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +296,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -438,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,6 +492,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -518,10 +534,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -807,7 +826,7 @@
   <dimension ref="A1:BA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -828,34 +847,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="19" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="19" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="21"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
@@ -894,13 +913,13 @@
       </c>
     </row>
     <row r="3" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="1"/>
@@ -914,11 +933,11 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -932,12 +951,12 @@
       <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -950,12 +969,12 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -984,14 +1003,14 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1004,12 +1023,14 @@
       <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="31"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1022,12 +1043,12 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1040,12 +1061,12 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1074,7 +1095,7 @@
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1094,7 +1115,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1167,13 +1188,13 @@
       <c r="BA15" s="9"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1187,11 +1208,11 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1205,11 +1226,11 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1223,11 +1244,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1257,7 +1278,7 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1277,7 +1298,7 @@
       <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1295,7 +1316,7 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1329,14 +1350,14 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1349,7 +1370,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1367,7 +1388,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="1" t="s">
         <v>33</v>
       </c>

--- a/plan/2024-甘特图.xlsx
+++ b/plan/2024-甘特图.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myCode\otherShore\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC897549-9655-41A2-9ED3-EC9657718A95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4931DAD-348C-4988-89A0-AC48436EDF4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>1月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,27 @@
   </si>
   <si>
     <t>努力中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apologize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源
+找到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +279,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +331,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -448,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -486,9 +533,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -496,6 +540,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -534,13 +596,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -826,7 +897,7 @@
   <dimension ref="A1:BA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -847,34 +918,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="21" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="21" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
@@ -913,16 +984,18 @@
       </c>
     </row>
     <row r="3" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="20"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -933,14 +1006,16 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="20"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -951,14 +1026,16 @@
       <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="20"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -969,14 +1046,14 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1003,14 +1080,14 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1023,16 +1100,16 @@
       <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1043,14 +1120,14 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1061,14 +1138,14 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1095,16 +1172,16 @@
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1115,14 +1192,14 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1188,16 +1265,18 @@
       <c r="BA15" s="9"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="19"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1208,14 +1287,14 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1226,14 +1305,14 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1244,14 +1323,14 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1278,7 +1357,7 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1298,7 +1377,7 @@
       <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1316,7 +1395,7 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1350,16 +1429,18 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="16"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1370,7 +1451,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1388,22 +1469,24 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="C27" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1428,10 +1511,10 @@
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1478,7 +1561,7 @@
       <c r="N31" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="16">
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -1490,6 +1573,11 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="E16:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/2024-甘特图.xlsx
+++ b/plan/2024-甘特图.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myCode\otherShore\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4931DAD-348C-4988-89A0-AC48436EDF4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F02C36F-10FD-44CD-83F6-AC5DAA8EBC24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>1月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,10 @@
   </si>
   <si>
     <t>corner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已找到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +291,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +360,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -495,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -560,6 +583,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -612,6 +638,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -897,7 +932,7 @@
   <dimension ref="A1:BA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -918,34 +953,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="26" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
@@ -984,7 +1019,7 @@
       </c>
     </row>
     <row r="3" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -996,8 +1031,8 @@
         <v>48</v>
       </c>
       <c r="F3" s="20"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1006,7 +1041,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
@@ -1016,8 +1051,8 @@
         <v>48</v>
       </c>
       <c r="F4" s="20"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1026,7 +1061,7 @@
       <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1036,8 +1071,8 @@
         <v>50</v>
       </c>
       <c r="F5" s="20"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1046,7 +1081,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1054,8 +1089,8 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1080,7 +1115,7 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1100,7 +1135,7 @@
       <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1110,8 +1145,8 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1120,7 +1155,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1128,8 +1163,8 @@
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1138,7 +1173,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1146,8 +1181,8 @@
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1172,7 +1207,7 @@
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1192,7 +1227,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1265,7 +1300,7 @@
       <c r="BA15" s="9"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1273,12 +1308,12 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="38" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="19"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1287,16 +1322,16 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="38"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1305,16 +1340,16 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="38"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1323,16 +1358,16 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="39"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1357,7 +1392,7 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1368,7 +1403,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="16"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -1377,7 +1412,7 @@
       <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1395,7 +1430,7 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1429,7 +1464,7 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="23" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1441,8 +1476,8 @@
         <v>52</v>
       </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1451,7 +1486,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1469,24 +1504,24 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="28"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1515,8 +1550,8 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1551,8 +1586,10 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="43" t="s">
+        <v>53</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>

--- a/plan/2024-甘特图.xlsx
+++ b/plan/2024-甘特图.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myCode\otherShore\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F02C36F-10FD-44CD-83F6-AC5DAA8EBC24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FCE642-D7A2-4396-A8B4-9A39F5D050F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>1月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,22 @@
   </si>
   <si>
     <t>已找到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青山湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1节/周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,6 +602,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -638,15 +663,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -931,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -953,34 +969,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="27" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="27" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1035,7 @@
       </c>
     </row>
     <row r="3" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1032,8 +1048,8 @@
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="19"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1041,7 +1057,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
@@ -1053,7 +1069,9 @@
       <c r="F4" s="20"/>
       <c r="G4" s="22"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="11"/>
@@ -1061,7 +1079,7 @@
       <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1072,8 +1090,8 @@
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1081,7 +1099,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1091,7 +1109,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1115,7 +1133,7 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1135,7 +1153,7 @@
       <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,8 +1164,8 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1155,7 +1173,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1165,7 +1183,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="22"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1173,7 +1191,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1183,7 +1201,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1207,7 +1225,7 @@
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="26" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1227,7 +1245,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,7 +1318,7 @@
       <c r="BA15" s="9"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1308,13 +1326,13 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="41" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1322,17 +1340,17 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="39"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1340,17 +1358,17 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="39"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1358,17 +1376,17 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="40"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1392,7 +1410,7 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="26" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1412,7 +1430,7 @@
       <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
@@ -1430,7 +1448,7 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1464,7 +1482,7 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="26" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1478,7 +1496,9 @@
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1486,7 +1506,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1504,24 +1524,26 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="32"/>
     </row>
     <row r="28" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1552,7 +1574,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1587,10 +1609,12 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="43" t="s">
+      <c r="H31" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="I31" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
